--- a/Projects/SANOFILB/Data/Template.xlsx
+++ b/Projects/SANOFILB/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="88">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
   </si>
   <si>
     <t xml:space="preserve">MSL Compliance</t>
@@ -1073,7 +1076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1124,6 +1127,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1174,7 +1184,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1215,6 +1225,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1239,23 +1257,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1509,21 +1527,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1634,90 +1652,111 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1745,401 +1784,401 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="22" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="23" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="24" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="28" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="29" t="n">
+      <c r="A3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="31" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="31" t="n">
+      <c r="E3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="31" t="n">
+        <v>4048846012579</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="29" t="n">
-        <v>4048846012579</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="31" t="n">
+      <c r="F4" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="29" t="n">
+      <c r="A5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="31" t="n">
         <v>4048846008657</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="31" t="n">
+      <c r="E5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="31" t="n">
+        <v>4048846006660</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="29" t="n">
-        <v>4048846006660</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="31" t="n">
+      <c r="F6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="29" t="n">
+      <c r="A7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="31" t="n">
         <v>3400936986046</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="31" t="n">
+      <c r="D7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31" t="n">
+      <c r="E8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="31" t="n">
+      <c r="E10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="29" t="n">
+      <c r="A11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="31" t="n">
         <v>4048846008435</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="31" t="n">
+      <c r="E11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="31" t="n">
+        <v>3582910076018</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="29" t="n">
-        <v>3582910076018</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="31" t="n">
+      <c r="F12" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="29" t="n">
+      <c r="A13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="31" t="n">
         <v>5285003471926</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="31" t="n">
+      <c r="D13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="31" t="n">
+        <v>5285003471933</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="29" t="n">
-        <v>5285003471933</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31" t="n">
+      <c r="E14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="34"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2169,210 +2208,210 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="33" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="33" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="22" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="24" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="24"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="G2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="A5" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="A6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="A7" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="A8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="A9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="A10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="A11" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="A12" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="A13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="A14" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="A15" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="A16" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="A17" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="A18" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2396,315 +2435,315 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="41" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="26.4574898785425"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="41" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="41" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="42" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="43" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="43" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="44" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="28" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="46" t="n">
+      <c r="E3" s="48" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="F3" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="47" t="n">
+      <c r="F3" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="46" t="n">
+      <c r="E4" s="48" t="n">
         <v>4048846012579</v>
       </c>
-      <c r="F4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="47" t="n">
+      <c r="F4" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="48" t="n">
+        <v>5285003471933</v>
+      </c>
+      <c r="F6" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="47" t="n">
+      <c r="C7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="48" t="n">
+        <v>3400936986046</v>
+      </c>
+      <c r="F8" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="49" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="46" t="n">
-        <v>5285003471933</v>
-      </c>
-      <c r="F6" s="47" t="n">
+      <c r="B9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="47" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="G10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="B11" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="48" t="n">
+        <v>4048846008435</v>
+      </c>
+      <c r="F11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="46" t="n">
-        <v>3400936986046</v>
-      </c>
-      <c r="F8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="46" t="n">
-        <v>4048846008435</v>
-      </c>
-      <c r="F11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="46" t="n">
+      <c r="E12" s="48" t="n">
         <v>3582910076018</v>
       </c>
-      <c r="F12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="47" t="n">
+      <c r="F12" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,207 +2775,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="33" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="49" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="35" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="51" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="53" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="38" t="n">
+      <c r="E3" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="38" t="n">
+      <c r="D4" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="38" t="n">
+      <c r="H4" s="40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="C5" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38" t="n">
+      <c r="D5" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="38" t="n">
+      <c r="H5" s="40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="38" t="n">
+      <c r="D6" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="38" t="n">
+      <c r="H6" s="40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="38" t="n">
+      <c r="C7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="38" t="n">
+      <c r="D8" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,371 +3002,371 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="56" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="56" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="56" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="57" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="58" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="58" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="58" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="58" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="58" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="58" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="59" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="53" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="59" t="n">
+      <c r="B3" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="61" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="61" t="n">
+      <c r="E3" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="61" t="n">
+      <c r="G3" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="62"/>
+      <c r="H3" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="61" t="n">
+        <v>4048846012579</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="59" t="n">
-        <v>4048846012579</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="61" t="n">
+      <c r="F4" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="61" t="n">
+      <c r="G4" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="62"/>
+      <c r="H4" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="63" t="n">
+      <c r="B5" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="65" t="n">
         <v>4048846008657</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="61" t="n">
+      <c r="E5" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="61" t="n">
+      <c r="G5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="65" t="n">
+        <v>4048846006660</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="63" t="n">
-        <v>4048846006660</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="61" t="n">
+      <c r="F6" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="63" t="n">
+      <c r="B7" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="65" t="n">
         <v>3400936986046</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="61" t="n">
+      <c r="D7" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="61" t="n">
+      <c r="E8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="61" t="n">
+      <c r="G8" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="61" t="n">
+      <c r="H8" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="56" t="s">
+      <c r="F9" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="61" t="n">
+      <c r="E10" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="65" t="n">
+        <v>4048846008435</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="61" t="n">
+      <c r="G11" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
+      <c r="H11" s="63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="61" t="n">
+      <c r="B12" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="65" t="n">
+        <v>3582910076018</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="65" t="n">
+        <v>5285003471926</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="63" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="s">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="63" t="n">
-        <v>4048846008435</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="63" t="n">
-        <v>3582910076018</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="63" t="n">
-        <v>5285003471926</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="65" t="n">
+        <v>5285003471933</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="63" t="n">
-        <v>5285003471933</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="61" t="n">
+      <c r="E14" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="61" t="n">
+      <c r="G14" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="63" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Projects/SANOFILB/Data/Template.xlsx
+++ b/Projects/SANOFILB/Data/Template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Shared\Implementation\EMEA\SANOFI\Sanofi_LB\From Customer\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D8EE09-9293-431E-8716-1FD08ECE24F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="8100" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -20,17 +14,17 @@
     <sheet name="Primary&amp;Secondary_POSM" sheetId="5" r:id="rId5"/>
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,12 +224,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,12 +347,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,12 +487,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +603,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="98">
   <si>
     <t>KPI Name</t>
   </si>
@@ -890,9 +884,6 @@
     <t>SALEV.MUL.PH</t>
   </si>
   <si>
-    <t>SALEV.MUL.MUC</t>
-  </si>
-  <si>
     <t>SALEV.MUL.ENT</t>
   </si>
   <si>
@@ -900,13 +891,19 @@
   </si>
   <si>
     <t>SALEV.MUCO.CTU</t>
+  </si>
+  <si>
+    <t>SALEV.MUL.Multi</t>
+  </si>
+  <si>
+    <t>Multibrand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1150,7 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
@@ -1227,7 +1224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,9 +1383,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,6 +1394,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1776,32 +1777,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="35" t="s">
         <v>37</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="38" t="s">
         <v>33</v>
       </c>
@@ -2005,7 +2006,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="38" t="s">
         <v>34</v>
       </c>
@@ -2020,7 +2021,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="53" t="s">
         <v>35</v>
       </c>
@@ -2043,26 +2044,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="58" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2073,8 +2075,10 @@
       </c>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2094,13 +2098,19 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2119,14 +2129,20 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="63">
         <v>1</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="I3" s="63">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2145,14 +2161,20 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="63">
         <v>1</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="63">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2171,14 +2193,20 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="63">
         <v>1</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="63">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2197,14 +2225,20 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="63">
         <v>1</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="63">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2223,14 +2257,20 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="63">
         <v>1</v>
       </c>
       <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="63">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,14 +2289,20 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="63">
         <v>1</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="63">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2275,14 +2321,20 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="63">
         <v>1</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="63">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2301,14 +2353,20 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="63">
         <v>1</v>
       </c>
       <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="63">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2327,14 +2385,20 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="63">
         <v>1</v>
       </c>
       <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="63">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2353,14 +2417,20 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="63">
         <v>1</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="63">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2379,14 +2449,20 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="63">
         <v>1</v>
       </c>
       <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="63">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2405,14 +2481,20 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="63">
         <v>1</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="63">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2431,14 +2513,20 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="63">
         <v>1</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="63">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2457,16 +2545,22 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="63">
         <v>1</v>
       </c>
       <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="63">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2474,24 +2568,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="15" customWidth="1"/>
     <col min="2" max="3" width="21" style="15" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="21" style="15" customWidth="1"/>
     <col min="6" max="7" width="17" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="11"/>
+    <col min="8" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2503,7 +2597,7 @@
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="17"/>
       <c r="B3" s="57"/>
       <c r="C3" s="6"/>
@@ -2539,7 +2633,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="17"/>
       <c r="B4" s="57"/>
       <c r="C4" s="6"/>
@@ -2549,7 +2643,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="17"/>
       <c r="B5" s="57"/>
       <c r="C5" s="6"/>
@@ -2559,7 +2653,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="17"/>
       <c r="B6" s="57"/>
       <c r="C6" s="6"/>
@@ -2569,7 +2663,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="17"/>
       <c r="B7" s="57"/>
       <c r="C7" s="6"/>
@@ -2579,7 +2673,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="17"/>
       <c r="B8" s="57"/>
       <c r="C8" s="6"/>
@@ -2589,7 +2683,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="17"/>
       <c r="B9" s="57"/>
       <c r="C9" s="6"/>
@@ -2599,7 +2693,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="17"/>
       <c r="B10" s="57"/>
       <c r="C10" s="6"/>
@@ -2609,7 +2703,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="17"/>
       <c r="B11" s="57"/>
       <c r="C11" s="6"/>
@@ -2619,7 +2713,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="17"/>
       <c r="B12" s="57"/>
       <c r="C12" s="6"/>
@@ -2629,7 +2723,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="17"/>
       <c r="B13" s="57"/>
       <c r="C13" s="6"/>
@@ -2639,7 +2733,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="17"/>
       <c r="B14" s="57"/>
       <c r="C14" s="6"/>
@@ -2649,7 +2743,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="17"/>
       <c r="B15" s="57"/>
       <c r="C15" s="6"/>
@@ -2659,7 +2753,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="17"/>
       <c r="B16" s="57"/>
       <c r="C16" s="6"/>
@@ -2669,7 +2763,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="17"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2678,7 +2772,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="17"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2697,24 +2791,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="20.5546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="48" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="48" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="3" width="20.5703125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="48" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -2726,7 +2820,7 @@
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
@@ -2778,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
@@ -2804,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="25.5">
       <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="45" t="s">
         <v>3</v>
       </c>
@@ -2856,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="51">
       <c r="A7" s="45" t="s">
         <v>3</v>
       </c>
@@ -2882,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="45" t="s">
         <v>3</v>
       </c>
@@ -2908,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="25.5">
       <c r="A9" s="45" t="s">
         <v>3</v>
       </c>
@@ -2934,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="25.5" customHeight="1">
       <c r="A10" s="45" t="s">
         <v>3</v>
       </c>
@@ -2960,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="45" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="25.5">
       <c r="A12" s="45" t="s">
         <v>3</v>
       </c>
@@ -3023,27 +3117,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="26" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="24" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="22" customWidth="1"/>
-    <col min="9" max="10" width="17.6640625" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="19"/>
+    <col min="5" max="5" width="18.7109375" style="24" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="22" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3057,7 +3151,7 @@
       <c r="I1" s="60"/>
       <c r="J1" s="60"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -3089,7 +3183,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
@@ -3121,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
@@ -3129,10 +3223,10 @@
         <v>88</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>64</v>
@@ -3153,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
@@ -3161,7 +3255,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>12</v>
@@ -3185,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
@@ -3193,7 +3287,7 @@
         <v>89</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>60</v>
@@ -3217,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
@@ -3225,7 +3319,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>13</v>
@@ -3260,27 +3354,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="28"/>
-    <col min="8" max="8" width="17.6640625" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="30.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="28"/>
+    <col min="8" max="8" width="17.7109375" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3294,7 +3388,7 @@
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
@@ -3358,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -3380,17 +3474,17 @@
       <c r="G4" s="32">
         <v>3</v>
       </c>
-      <c r="H4" s="58">
-        <v>1</v>
-      </c>
-      <c r="I4" s="58">
+      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32">
         <v>1</v>
       </c>
       <c r="J4" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -3422,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
@@ -3454,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
@@ -3486,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
@@ -3550,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="31" t="s">
         <v>2</v>
       </c>
@@ -3582,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="31" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="31" t="s">
         <v>2</v>
       </c>
@@ -3646,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="31" t="s">
         <v>2</v>
       </c>
@@ -3678,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="31" t="s">
         <v>2</v>
       </c>
@@ -3710,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="31" t="s">
         <v>2</v>
       </c>
@@ -3738,11 +3832,11 @@
       <c r="I15" s="32">
         <v>1</v>
       </c>
-      <c r="J15" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
@@ -3774,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="25.5">
       <c r="A17" s="42" t="s">
         <v>37</v>
       </c>
@@ -3793,20 +3887,20 @@
       <c r="F17" s="32">
         <v>0</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="32">
         <v>3</v>
       </c>
       <c r="H17" s="32">
         <v>0</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="32">
         <v>3</v>
       </c>
       <c r="J17" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" s="42" t="s">
         <v>37</v>
       </c>

--- a/Projects/SANOFILB/Data/Template.xlsx
+++ b/Projects/SANOFILB/Data/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Private\svetar\Sanofi templates\SANOFI\Lebanon\data updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maya\Desktop\Sanofi KPI Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{715C6A39-B3A0-4513-B705-7DE50D01B002}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8623EF13-D36E-44E2-80C8-48B7DCF8C7C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Primary&amp;Secondary_POSM" sheetId="5" r:id="rId5"/>
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -211,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{404111F6-8754-4560-B312-315D8A92EA4F}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Minimum number of facings for each POSM per Segement (Indicate 0 if not checked)</t>
+          <t>Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
         </r>
       </text>
     </comment>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="85">
   <si>
     <t>KPI Name</t>
   </si>
@@ -803,12 +803,6 @@
     <t>Digestive Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough and Cold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multivitamins </t>
-  </si>
-  <si>
     <t>Pain</t>
   </si>
   <si>
@@ -866,43 +860,10 @@
     <t>5285003471926,5285003471933</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEB Pharmaton </t>
-  </si>
-  <si>
-    <t>LEB Mucosolvan</t>
-  </si>
-  <si>
-    <t>LEB Buscopan</t>
-  </si>
-  <si>
-    <t>LEB Enterogermina</t>
-  </si>
-  <si>
-    <t>LEB Mucosolvan CTU</t>
-  </si>
-  <si>
-    <t>SALEV.MUL.PH</t>
-  </si>
-  <si>
-    <t>SALEV.MUL.ENT</t>
-  </si>
-  <si>
-    <t>SALEV.MUL.BUS</t>
-  </si>
-  <si>
-    <t>SALEV.MUCO.CTU</t>
-  </si>
-  <si>
-    <t>SALEV.MUL.Multi</t>
-  </si>
-  <si>
-    <t>Multibrand</t>
+    <t>Cough and Cold</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1033,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,30 +1098,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8FAADC"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1236,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1281,26 +1218,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1342,9 +1268,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,9 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1391,16 +1311,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1799,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
@@ -1815,238 +1725,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="38"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="38"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54" t="s">
+      <c r="E12" s="49"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2057,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,27 +1980,24 @@
     <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2110,29 +2017,23 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="50">
         <v>3582910032373</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2141,30 +2042,24 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="58">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="50">
         <v>4048846012579</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="51" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2173,406 +2068,328 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="58">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="50">
         <v>4048846008657</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="58">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="50">
         <v>4048846006660</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="58">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="50">
         <v>3400936986046</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="51" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="58">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="58">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="58">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="58">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="50">
         <v>4048846010384</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="58">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="50">
         <v>4048846008435</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="51" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="7">
         <v>1</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="58">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="50">
         <v>4048846013156</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="51" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="58">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="50">
         <v>3582910076018</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="51" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="7">
         <v>1</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="58">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="50">
         <v>5285003471926</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="58">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="50">
         <v>5285003471933</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="58">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2581,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,19 +2414,19 @@
     <col min="8" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2628,155 +2445,149 @@
       <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="56"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="55"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="56"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="55"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="56"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="55"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="56"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="55"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="55"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="55"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="56"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="55"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="55"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="55"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="55"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2810,35 +2621,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.5703125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="47" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="43"/>
+    <col min="1" max="3" width="20.5703125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="43" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="61" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2861,49 +2672,37 @@
         <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="46">
-        <v>1</v>
-      </c>
-      <c r="G3" s="46">
-        <v>1</v>
-      </c>
-      <c r="H3" s="46">
-        <v>1</v>
-      </c>
-      <c r="I3" s="43">
-        <v>0</v>
-      </c>
-      <c r="J3" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="E3" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+      <c r="G3" s="42">
+        <v>1</v>
+      </c>
+      <c r="H3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2912,282 +2711,228 @@
       <c r="C4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="46">
-        <v>1</v>
-      </c>
-      <c r="G4" s="46">
-        <v>1</v>
-      </c>
-      <c r="H4" s="46">
-        <v>1</v>
-      </c>
-      <c r="I4" s="43">
-        <v>0</v>
-      </c>
-      <c r="J4" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="E4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1</v>
+      </c>
+      <c r="H4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="46">
-        <v>1</v>
-      </c>
-      <c r="G5" s="46">
-        <v>1</v>
-      </c>
-      <c r="H5" s="46">
-        <v>1</v>
-      </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="46">
-        <v>1</v>
-      </c>
-      <c r="G6" s="46">
-        <v>1</v>
-      </c>
-      <c r="H6" s="46">
+      <c r="E6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+      <c r="H6" s="42">
         <v>0</v>
       </c>
-      <c r="I6" s="43">
-        <v>0</v>
-      </c>
-      <c r="J6" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46">
+        <v>84</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="42">
         <v>0</v>
       </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="46">
+        <v>84</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="42">
         <v>0</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="42">
         <v>0</v>
       </c>
-      <c r="H8" s="46">
-        <v>1</v>
-      </c>
-      <c r="I8" s="43">
-        <v>0</v>
-      </c>
-      <c r="J8" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="H8" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="46">
-        <v>1</v>
-      </c>
-      <c r="G9" s="46">
-        <v>1</v>
-      </c>
-      <c r="H9" s="46">
+        <v>76</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42">
+        <v>1</v>
+      </c>
+      <c r="H9" s="42">
         <v>0</v>
       </c>
-      <c r="I9" s="43">
-        <v>0</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="46">
+        <v>64</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="42">
         <v>0</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="42">
         <v>0</v>
       </c>
-      <c r="H10" s="46">
-        <v>1</v>
-      </c>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="H10" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="46">
-        <v>1</v>
-      </c>
-      <c r="G11" s="46">
-        <v>1</v>
-      </c>
-      <c r="H11" s="46">
+      <c r="E11" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1</v>
+      </c>
+      <c r="H11" s="42">
         <v>0</v>
       </c>
-      <c r="I11" s="43">
-        <v>0</v>
-      </c>
-      <c r="J11" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="46">
-        <v>1</v>
-      </c>
-      <c r="G12" s="46">
-        <v>1</v>
-      </c>
-      <c r="H12" s="46">
-        <v>1</v>
-      </c>
-      <c r="I12" s="43">
-        <v>0</v>
-      </c>
-      <c r="J12" s="43">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1</v>
+      </c>
+      <c r="H12" s="42">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3202,234 +2947,102 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="22" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="26" style="23" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="23" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="21" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="18"/>
+    <col min="4" max="4" width="26" style="22" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="22">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" s="60">
-        <v>0</v>
-      </c>
-      <c r="I5" s="60">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="H2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3439,586 +3052,428 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="27"/>
-    <col min="8" max="8" width="17.7109375" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="29" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="63" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="H2" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="50">
         <v>3582910032373</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <v>2</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="28">
         <v>2</v>
       </c>
-      <c r="H3" s="31">
-        <v>2</v>
-      </c>
-      <c r="I3" s="31">
-        <v>2</v>
-      </c>
-      <c r="J3" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="H3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="50">
         <v>4048846012579</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="51" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>3</v>
       </c>
-      <c r="G4" s="31">
-        <v>3</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
-        <v>1</v>
-      </c>
-      <c r="J4" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="G4" s="28">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="50">
         <v>4048846008657</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="31">
+        <v>83</v>
+      </c>
+      <c r="F5" s="28">
         <v>3</v>
       </c>
-      <c r="G5" s="31">
-        <v>3</v>
-      </c>
-      <c r="H5" s="31">
+      <c r="G5" s="28">
         <v>2</v>
       </c>
-      <c r="I5" s="31">
+      <c r="H5" s="28">
         <v>2</v>
       </c>
-      <c r="J5" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="50">
         <v>4048846006660</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="31">
+        <v>83</v>
+      </c>
+      <c r="F6" s="28">
         <v>2</v>
       </c>
-      <c r="G6" s="31">
-        <v>2</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31">
-        <v>1</v>
-      </c>
-      <c r="J6" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="G6" s="28">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="50">
         <v>3400936986046</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="51" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="31">
-        <v>1</v>
-      </c>
-      <c r="G7" s="31">
-        <v>1</v>
-      </c>
-      <c r="H7" s="31">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31">
-        <v>1</v>
-      </c>
-      <c r="J7" s="31">
+        <v>83</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="31">
-        <v>1</v>
-      </c>
-      <c r="G8" s="31">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31">
-        <v>1</v>
-      </c>
-      <c r="J8" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="31">
+        <v>84</v>
+      </c>
+      <c r="F9" s="28">
         <v>5</v>
       </c>
-      <c r="G9" s="31">
-        <v>5</v>
-      </c>
-      <c r="H9" s="31">
+      <c r="G9" s="28">
         <v>3</v>
       </c>
-      <c r="I9" s="31">
-        <v>3</v>
-      </c>
-      <c r="J9" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="H9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="31">
-        <v>1</v>
-      </c>
-      <c r="G10" s="31">
-        <v>1</v>
-      </c>
-      <c r="H10" s="31">
-        <v>1</v>
-      </c>
-      <c r="I10" s="31">
-        <v>1</v>
-      </c>
-      <c r="J10" s="31">
+        <v>84</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="50">
         <v>4048846010384</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="31">
-        <v>1</v>
-      </c>
-      <c r="G11" s="31">
-        <v>1</v>
-      </c>
-      <c r="H11" s="31">
-        <v>1</v>
-      </c>
-      <c r="I11" s="31">
-        <v>1</v>
-      </c>
-      <c r="J11" s="31">
+        <v>84</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="50">
         <v>4048846008435</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="51" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="31">
+        <v>64</v>
+      </c>
+      <c r="F12" s="28">
         <v>3</v>
       </c>
-      <c r="G12" s="31">
-        <v>3</v>
-      </c>
-      <c r="H12" s="31">
+      <c r="G12" s="28">
         <v>2</v>
       </c>
-      <c r="I12" s="31">
-        <v>2</v>
-      </c>
-      <c r="J12" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="H12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="50">
         <v>4048846013156</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="51" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="31">
+        <v>64</v>
+      </c>
+      <c r="F13" s="28">
         <v>2</v>
       </c>
-      <c r="G13" s="31">
-        <v>2</v>
-      </c>
-      <c r="H13" s="31">
-        <v>1</v>
-      </c>
-      <c r="I13" s="31">
-        <v>1</v>
-      </c>
-      <c r="J13" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="G13" s="28">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="50">
         <v>3582910076018</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="51" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="31">
+        <v>64</v>
+      </c>
+      <c r="F14" s="28">
         <v>2</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="28">
         <v>2</v>
       </c>
-      <c r="H14" s="31">
-        <v>2</v>
-      </c>
-      <c r="I14" s="31">
-        <v>2</v>
-      </c>
-      <c r="J14" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="50">
         <v>5285003471926</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="31">
-        <v>1</v>
-      </c>
-      <c r="G15" s="31">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31">
-        <v>1</v>
-      </c>
-      <c r="J15" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="50">
         <v>5285003471933</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31">
-        <v>1</v>
-      </c>
-      <c r="H16" s="31">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
-        <v>1</v>
-      </c>
-      <c r="J16" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="55">
-        <v>4048846008657</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
-        <v>3</v>
-      </c>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31">
-        <v>3</v>
-      </c>
-      <c r="J17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="55">
-        <v>4048846006660</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-      <c r="G18" s="31">
-        <v>2</v>
-      </c>
-      <c r="H18" s="31">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31">
-        <v>2</v>
-      </c>
-      <c r="J18" s="31">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+      <c r="G16" s="28">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Projects/SANOFILB/Data/Template.xlsx
+++ b/Projects/SANOFILB/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="77">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -815,7 +815,31 @@
     <t xml:space="preserve">TELFAST 180MG TABCO BL1X15 </t>
   </si>
   <si>
+    <t xml:space="preserve">ENTEROGERMINA 6B CFU / 2G GRAN SAC 10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAXILASE 25000 IU/125 ML SYRUP BOT X 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxilase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAXILASE 3000 IU TABLET, SUGAR COATED BLI #24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNE B6 470 MG, 5 MG TABLET, SUGAR COATED BLI #50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNEVIEB6 100 MG 10 MG TABLET, SUGAR COATED BLI #60</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTEROGERMI,6B/2G</t>
   </si>
 </sst>
 </file>
@@ -915,6 +939,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -966,12 +996,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1000,7 +1024,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,6 +1081,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -1121,7 +1151,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1222,19 +1252,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1242,22 +1304,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1270,31 +1316,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1314,11 +1356,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1408,14 +1458,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4655870445344"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,22 +1720,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1726,7 +1776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
@@ -1749,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -1772,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -1804,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
@@ -1830,137 +1880,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="26" t="n">
         <v>3400936986046</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="26" t="n">
         <v>4048846010384</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -1983,10 +2033,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
@@ -2012,37 +2062,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="21" t="n">
+      <c r="C14" s="26" t="n">
         <v>3582910076018</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="21" t="n">
@@ -2064,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
@@ -2088,6 +2138,136 @@
       </c>
       <c r="H16" s="24" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <v>3582910074014</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <v>3582910020592</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>3582910011910</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <v>3582910069874</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <v>3400936326866</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2110,28 +2290,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="27" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="31.4655870445344"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.06072874493927"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +2329,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2157,171 +2337,31 @@
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="37" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
+    <row r="1048559" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>
@@ -2344,26 +2384,26 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="35" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="38" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="37.8259109311741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="38" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="39" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2425,15 +2465,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="39" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="39" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="28.8947368421053"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="32.9271255060729"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="35.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="42" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2449,66 +2489,66 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2530,63 +2570,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="42" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="43" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="45" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="46" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2601,18 +2641,18 @@
       <c r="E3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="49" t="n">
+      <c r="F3" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="G3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2627,18 +2667,18 @@
       <c r="E4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="F4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2653,18 +2693,18 @@
       <c r="E5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="49" t="n">
+      <c r="F5" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="49" t="n">
+      <c r="G5" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2679,148 +2719,148 @@
       <c r="E6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="49" t="n">
+      <c r="F6" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="G6" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="26" t="n">
         <v>3400936986046</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="F7" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="F8" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="49" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="F9" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="F10" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="26" t="n">
         <v>4048846010384</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
+      <c r="F11" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2835,18 +2875,18 @@
       <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
+      <c r="F12" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -2861,47 +2901,47 @@
       <c r="E13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="49" t="n">
+      <c r="F13" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="s">
+      <c r="G13" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="21" t="n">
+      <c r="C14" s="26" t="n">
         <v>3582910076018</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="s">
+      <c r="F14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="21" t="n">
@@ -2913,18 +2953,18 @@
       <c r="E15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48" t="s">
+      <c r="F15" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -2939,14 +2979,144 @@
       <c r="E16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="49" t="n">
-        <v>1</v>
+      <c r="F16" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <v>3582910074014</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <v>3582910020592</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>3582910011910</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <v>3582910069874</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <v>3400936326866</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="52" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
